--- a/manualParams_RVE_1_40_D/DB_RVE_14_0_D_converging_params.xlsx
+++ b/manualParams_RVE_1_40_D/DB_RVE_14_0_D_converging_params.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\Crystal-Plasticity-Project\manualParams_RVE_1_40_D\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8679FDC5-23F4-4BFD-B693-CDDB479917F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -100,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
@@ -146,56 +152,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -206,10 +220,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -247,71 +261,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,7 +353,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -362,11 +376,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -375,13 +389,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -391,7 +405,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -400,7 +414,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -409,7 +423,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -417,10 +431,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -485,67 +499,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T121"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="D55" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74:M76"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="14.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="14.109375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+    </row>
+    <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>3</v>
@@ -591,7 +597,7 @@
       </c>
       <c r="T2" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -637,7 +643,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -683,7 +689,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -729,7 +735,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -775,7 +781,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -821,7 +827,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -867,7 +873,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,7 +931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -945,45 +951,45 @@
         <v>0.06</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="I10" s="5">
-        <v>87</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="L10" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="M10" s="9">
-        <v>2.85</v>
+      <c r="H10" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="I10" s="10">
+        <v>75</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="M10" s="11">
+        <v>2.1</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P10" s="5">
         <v>148</v>
       </c>
       <c r="Q10" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R10" s="9">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="S10" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="T10" s="8">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+        <v>1.95</v>
+      </c>
+      <c r="T10" s="9">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1003,45 +1009,45 @@
         <v>0.19</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="I11" s="5">
-        <v>83</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0.11</v>
-      </c>
-      <c r="L11" s="9">
-        <v>1.65</v>
-      </c>
-      <c r="M11" s="5">
-        <v>2</v>
+      <c r="H11" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="I11" s="10">
+        <v>54</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="M11" s="11">
+        <v>1.4</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P11" s="5">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="5">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="R11" s="9">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="S11" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="T11" s="8">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+        <v>1.45</v>
+      </c>
+      <c r="T11" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -1061,45 +1067,45 @@
         <v>0.02</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="I12" s="5">
-        <v>50</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0.36</v>
-      </c>
-      <c r="L12" s="9">
-        <v>1.35</v>
-      </c>
-      <c r="M12" s="9">
-        <v>2.05</v>
+      <c r="H12" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="10">
+        <v>91</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1.85</v>
+      </c>
+      <c r="M12" s="11">
+        <v>2.5</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P12" s="5">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="Q12" s="5">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="R12" s="9">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="S12" s="9">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="T12" s="9">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -1119,45 +1125,45 @@
         <v>0.33</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="I13" s="5">
-        <v>94</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0.81</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0.11</v>
-      </c>
-      <c r="L13" s="9">
-        <v>1.05</v>
-      </c>
-      <c r="M13" s="9">
-        <v>2.3</v>
+      <c r="H13" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="I13" s="10">
+        <v>58</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="L13" s="11">
+        <v>1.65</v>
+      </c>
+      <c r="M13" s="11">
+        <v>2.4500000000000002</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="5">
-        <v>4</v>
-      </c>
-      <c r="P13" s="5">
-        <v>161</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>20</v>
-      </c>
-      <c r="R13" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="S13" s="5">
-        <v>1</v>
-      </c>
-      <c r="T13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="O13" s="10">
+        <v>9</v>
+      </c>
+      <c r="P13" s="10">
+        <v>143</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>28</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="S13" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="T13" s="11">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>4</v>
       </c>
@@ -1177,45 +1183,45 @@
         <v>0.34</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="9">
-        <v>0.49</v>
-      </c>
-      <c r="I14" s="5">
-        <v>79</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0.21</v>
-      </c>
-      <c r="L14" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="M14" s="5">
-        <v>2</v>
+      <c r="H14" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="I14" s="10">
+        <v>97</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1.45</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1.2</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="5">
-        <v>9</v>
-      </c>
-      <c r="P14" s="5">
-        <v>145</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>31</v>
-      </c>
-      <c r="R14" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="S14" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="T14" s="9">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="O14" s="10">
+        <v>4</v>
+      </c>
+      <c r="P14" s="10">
+        <v>189</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>46</v>
+      </c>
+      <c r="R14" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="S14" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="T14" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>5</v>
       </c>
@@ -1235,45 +1241,45 @@
         <v>0.17</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="9">
-        <v>0.27</v>
-      </c>
-      <c r="I15" s="5">
-        <v>95</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0.41</v>
-      </c>
-      <c r="L15" s="9">
+      <c r="H15" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="I15" s="10">
+        <v>56</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="11">
+        <v>2</v>
+      </c>
+      <c r="M15" s="11">
         <v>1.7</v>
       </c>
-      <c r="M15" s="9">
-        <v>2.35</v>
-      </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="5">
-        <v>23</v>
-      </c>
-      <c r="P15" s="5">
-        <v>187</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>46</v>
-      </c>
-      <c r="R15" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="S15" s="9">
-        <v>1.95</v>
-      </c>
-      <c r="T15" s="9">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="O15" s="10">
+        <v>7</v>
+      </c>
+      <c r="P15" s="10">
+        <v>150</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>44</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="S15" s="11">
+        <v>2</v>
+      </c>
+      <c r="T15" s="11">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>6</v>
       </c>
@@ -1293,45 +1299,45 @@
         <v>0.38</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="9">
-        <v>0.51</v>
-      </c>
-      <c r="I16" s="5">
-        <v>88</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0.26</v>
-      </c>
-      <c r="L16" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="M16" s="9">
-        <v>1.3</v>
+      <c r="H16" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="I16" s="10">
+        <v>91</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="L16" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="M16" s="11">
+        <v>2.95</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="5">
-        <v>19</v>
-      </c>
-      <c r="P16" s="5">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>46</v>
-      </c>
-      <c r="R16" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="S16" s="9">
-        <v>1.95</v>
-      </c>
-      <c r="T16" s="9">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="O16" s="10">
+        <v>11</v>
+      </c>
+      <c r="P16" s="10">
+        <v>118</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>26</v>
+      </c>
+      <c r="R16" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="S16" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="T16" s="11">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>11</v>
       </c>
@@ -1345,51 +1351,51 @@
         <v>0.95</v>
       </c>
       <c r="E17" s="9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F17" s="8">
         <v>0.39</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="9">
-        <v>0.29</v>
-      </c>
-      <c r="I17" s="5">
-        <v>62</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0.65</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0.46</v>
-      </c>
-      <c r="L17" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="M17" s="9">
-        <v>2.75</v>
+      <c r="H17" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="I17" s="10">
+        <v>52</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="M17" s="11">
+        <v>2.85</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="5">
-        <v>1</v>
-      </c>
-      <c r="P17" s="5">
-        <v>181</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>2</v>
-      </c>
-      <c r="R17" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="S17" s="9">
-        <v>1.85</v>
-      </c>
-      <c r="T17" s="9">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="O17" s="10">
+        <v>13</v>
+      </c>
+      <c r="P17" s="10">
+        <v>135</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>9</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="S17" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="T17" s="11">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>8</v>
       </c>
@@ -1409,45 +1415,45 @@
         <v>0.19</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="9">
-        <v>0.39</v>
-      </c>
-      <c r="I18" s="5">
-        <v>52</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0.66</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0.11</v>
-      </c>
-      <c r="L18" s="5">
-        <v>1</v>
-      </c>
-      <c r="M18" s="5">
-        <v>2</v>
+      <c r="H18" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I18" s="10">
+        <v>100</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="L18" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="M18" s="11">
+        <v>1.05</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="5">
-        <v>3</v>
-      </c>
-      <c r="P18" s="5">
-        <v>127</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>37</v>
-      </c>
-      <c r="R18" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="S18" s="5">
-        <v>1</v>
-      </c>
-      <c r="T18" s="9">
+      <c r="O18" s="10">
+        <v>24</v>
+      </c>
+      <c r="P18" s="10">
+        <v>198</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>30</v>
+      </c>
+      <c r="R18" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="S18" s="11">
         <v>1.2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="T18" s="11">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>10</v>
       </c>
@@ -1467,45 +1473,45 @@
         <v>0.21</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="9">
-        <v>0.83</v>
-      </c>
-      <c r="I19" s="5">
-        <v>93</v>
-      </c>
-      <c r="J19" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="L19" s="9">
-        <v>1.45</v>
-      </c>
-      <c r="M19" s="5">
-        <v>2</v>
+      <c r="H19" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="I19" s="10">
+        <v>57</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="M19" s="11">
+        <v>1.55</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="5">
-        <v>1</v>
-      </c>
-      <c r="P19" s="5">
-        <v>162</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>19</v>
-      </c>
-      <c r="R19" s="9">
-        <v>0.55</v>
-      </c>
-      <c r="S19" s="9">
+      <c r="O19" s="10">
+        <v>13</v>
+      </c>
+      <c r="P19" s="10">
+        <v>170</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>11</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="S19" s="11">
         <v>1.8</v>
       </c>
-      <c r="T19" s="9">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="T19" s="11">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>4</v>
       </c>
@@ -1522,48 +1528,48 @@
         <v>2</v>
       </c>
       <c r="F20" s="8">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="9">
-        <v>0.54</v>
-      </c>
-      <c r="I20" s="5">
-        <v>57</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0.83</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="L20" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="M20" s="9">
-        <v>2.85</v>
+      <c r="H20" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="I20" s="10">
+        <v>66</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="L20" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="M20" s="11">
+        <v>1.75</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="5">
-        <v>23</v>
-      </c>
-      <c r="P20" s="5">
-        <v>184</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>19</v>
-      </c>
-      <c r="R20" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="S20" s="9">
-        <v>1.95</v>
-      </c>
-      <c r="T20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="O20" s="10">
+        <v>9</v>
+      </c>
+      <c r="P20" s="10">
+        <v>153</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>41</v>
+      </c>
+      <c r="R20" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="S20" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="T20" s="11">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>6</v>
       </c>
@@ -1583,45 +1589,45 @@
         <v>0.12</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="I21" s="5">
-        <v>53</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0.57</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0.38</v>
-      </c>
-      <c r="L21" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="M21" s="9">
-        <v>1.65</v>
+      <c r="H21" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="I21" s="10">
+        <v>61</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="L21" s="11">
+        <v>2</v>
+      </c>
+      <c r="M21" s="11">
+        <v>1.6</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="5">
-        <v>2</v>
-      </c>
-      <c r="P21" s="5">
-        <v>105</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>44</v>
-      </c>
-      <c r="R21" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="S21" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="T21" s="9">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="O21" s="10">
+        <v>4</v>
+      </c>
+      <c r="P21" s="10">
+        <v>110</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>42</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="S21" s="11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="T21" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>2</v>
       </c>
@@ -1641,45 +1647,45 @@
         <v>0.34</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="I22" s="5">
-        <v>72</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0.48</v>
-      </c>
-      <c r="L22" s="9">
+      <c r="H22" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="I22" s="10">
+        <v>64</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="L22" s="11">
         <v>1.55</v>
       </c>
-      <c r="M22" s="9">
-        <v>2.85</v>
+      <c r="M22" s="11">
+        <v>2.95</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="5">
+      <c r="O22" s="10">
         <v>10</v>
       </c>
-      <c r="P22" s="5">
-        <v>101</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>20</v>
-      </c>
-      <c r="R22" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="S22" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="T22" s="9">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="P22" s="10">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>45</v>
+      </c>
+      <c r="R22" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="S22" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="T22" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>7</v>
       </c>
@@ -1699,45 +1705,45 @@
         <v>0.13</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="9">
-        <v>0.38</v>
-      </c>
-      <c r="I23" s="5">
-        <v>73</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0.29</v>
-      </c>
-      <c r="L23" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="M23" s="9">
-        <v>2.2</v>
+      <c r="H23" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="I23" s="10">
+        <v>93</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.37</v>
+      </c>
+      <c r="L23" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="M23" s="11">
+        <v>2.95</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="5">
-        <v>2</v>
-      </c>
-      <c r="P23" s="5">
-        <v>168</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>27</v>
-      </c>
-      <c r="R23" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="S23" s="5">
-        <v>2</v>
-      </c>
-      <c r="T23" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="O23" s="10">
+        <v>16</v>
+      </c>
+      <c r="P23" s="10">
+        <v>182</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>42</v>
+      </c>
+      <c r="R23" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="S23" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>3</v>
       </c>
@@ -1757,45 +1763,45 @@
         <v>0.19</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="9">
-        <v>0.88</v>
-      </c>
-      <c r="I24" s="5">
-        <v>91</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0.14</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0.42</v>
-      </c>
-      <c r="L24" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="M24" s="9">
-        <v>2.9</v>
+      <c r="H24" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="I24" s="10">
+        <v>95</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="L24" s="11">
+        <v>1</v>
+      </c>
+      <c r="M24" s="11">
+        <v>1.9</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="5">
-        <v>3</v>
-      </c>
-      <c r="P24" s="5">
-        <v>108</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>42</v>
-      </c>
-      <c r="R24" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="S24" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="T24" s="9">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="O24" s="10">
+        <v>7</v>
+      </c>
+      <c r="P24" s="10">
+        <v>144</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>46</v>
+      </c>
+      <c r="R24" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="S24" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="T24" s="11">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -1815,45 +1821,45 @@
         <v>0.45</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="9">
-        <v>0.71</v>
-      </c>
-      <c r="I25" s="5">
-        <v>50</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0.19</v>
-      </c>
-      <c r="L25" s="9">
-        <v>1.35</v>
-      </c>
-      <c r="M25" s="9">
-        <v>1.35</v>
+      <c r="H25" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="I25" s="10">
+        <v>87</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="L25" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="M25" s="11">
+        <v>1.9</v>
       </c>
       <c r="N25" s="4"/>
-      <c r="O25" s="5">
-        <v>6</v>
-      </c>
-      <c r="P25" s="5">
-        <v>196</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>41</v>
-      </c>
-      <c r="R25" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="S25" s="9">
-        <v>1.1</v>
-      </c>
-      <c r="T25" s="9">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="O25" s="10">
+        <v>2</v>
+      </c>
+      <c r="P25" s="10">
+        <v>119</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>33</v>
+      </c>
+      <c r="R25" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="S25" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="T25" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -1870,48 +1876,48 @@
         <v>2</v>
       </c>
       <c r="F26" s="8">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="9">
-        <v>0.72</v>
-      </c>
-      <c r="I26" s="5">
-        <v>100</v>
-      </c>
-      <c r="J26" s="9">
-        <v>0.91</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="L26" s="9">
-        <v>1.05</v>
-      </c>
-      <c r="M26" s="5">
+      <c r="H26" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="I26" s="10">
+        <v>78</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="L26" s="11">
         <v>2</v>
       </c>
+      <c r="M26" s="11">
+        <v>2.75</v>
+      </c>
       <c r="N26" s="4"/>
-      <c r="O26" s="5">
-        <v>4</v>
-      </c>
-      <c r="P26" s="5">
-        <v>191</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>12</v>
-      </c>
-      <c r="R26" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="S26" s="5">
-        <v>1</v>
-      </c>
-      <c r="T26" s="9">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="O26" s="10">
+        <v>7</v>
+      </c>
+      <c r="P26" s="10">
+        <v>192</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>33</v>
+      </c>
+      <c r="R26" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="S26" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="T26" s="11">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>4</v>
       </c>
@@ -1925,51 +1931,51 @@
         <v>0.65</v>
       </c>
       <c r="E27" s="9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F27" s="8">
         <v>0.05</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="I27" s="5">
-        <v>85</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="K27" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="L27" s="9">
-        <v>1.75</v>
-      </c>
-      <c r="M27" s="9">
-        <v>1.9</v>
+      <c r="H27" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="I27" s="10">
+        <v>71</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="L27" s="11">
+        <v>2</v>
+      </c>
+      <c r="M27" s="11">
+        <v>1</v>
       </c>
       <c r="N27" s="4"/>
-      <c r="O27" s="5">
+      <c r="O27" s="10">
         <v>5</v>
       </c>
-      <c r="P27" s="5">
-        <v>178</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>14</v>
-      </c>
-      <c r="R27" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="S27" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="T27" s="9">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="P27" s="10">
+        <v>144</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>50</v>
+      </c>
+      <c r="R27" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="S27" s="11">
+        <v>1.85</v>
+      </c>
+      <c r="T27" s="11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>2</v>
       </c>
@@ -1989,45 +1995,45 @@
         <v>0.03</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="9">
-        <v>0.43</v>
-      </c>
-      <c r="I28" s="5">
-        <v>67</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="L28" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="M28" s="9">
-        <v>1.7</v>
+      <c r="H28" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="I28" s="10">
+        <v>52</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="L28" s="11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M28" s="11">
+        <v>2.85</v>
       </c>
       <c r="N28" s="4"/>
-      <c r="O28" s="5">
-        <v>1</v>
-      </c>
-      <c r="P28" s="5">
-        <v>162</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>19</v>
-      </c>
-      <c r="R28" s="9">
-        <v>0.55</v>
-      </c>
-      <c r="S28" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="T28" s="9">
+      <c r="O28" s="10">
+        <v>8</v>
+      </c>
+      <c r="P28" s="10">
+        <v>135</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>25</v>
+      </c>
+      <c r="R28" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="S28" s="11">
         <v>1.6</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="T28" s="11">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>12</v>
       </c>
@@ -2047,45 +2053,45 @@
         <v>0.23</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="9">
-        <v>0.64</v>
-      </c>
-      <c r="I29" s="5">
-        <v>70</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0.99</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="L29" s="9">
-        <v>1.75</v>
-      </c>
-      <c r="M29" s="9">
-        <v>2.75</v>
+      <c r="H29" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="I29" s="10">
+        <v>92</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="L29" s="11">
+        <v>2</v>
+      </c>
+      <c r="M29" s="11">
+        <v>1.8</v>
       </c>
       <c r="N29" s="4"/>
-      <c r="O29" s="5">
-        <v>23</v>
-      </c>
-      <c r="P29" s="5">
-        <v>184</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>19</v>
-      </c>
-      <c r="R29" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="S29" s="9">
-        <v>1.95</v>
-      </c>
-      <c r="T29" s="5">
+      <c r="O29" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="P29" s="10">
+        <v>106</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>44</v>
+      </c>
+      <c r="R29" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="S29" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T29" s="11">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>1</v>
       </c>
@@ -2105,45 +2111,45 @@
         <v>0.43</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="9">
-        <v>0.66</v>
-      </c>
-      <c r="I30" s="5">
-        <v>91</v>
-      </c>
-      <c r="J30" s="9">
-        <v>0.14</v>
-      </c>
-      <c r="K30" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="L30" s="9">
-        <v>1.55</v>
-      </c>
-      <c r="M30" s="9">
-        <v>1.05</v>
+      <c r="H30" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="I30" s="10">
+        <v>65</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="L30" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="M30" s="11">
+        <v>1.95</v>
       </c>
       <c r="N30" s="4"/>
-      <c r="O30" s="5">
-        <v>2</v>
-      </c>
-      <c r="P30" s="5">
-        <v>105</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>44</v>
-      </c>
-      <c r="R30" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="S30" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="T30" s="9">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="O30" s="10">
+        <v>3</v>
+      </c>
+      <c r="P30" s="10">
+        <v>112</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>34</v>
+      </c>
+      <c r="R30" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="S30" s="11">
+        <v>1.65</v>
+      </c>
+      <c r="T30" s="11">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>8</v>
       </c>
@@ -2157,51 +2163,51 @@
         <v>0.15</v>
       </c>
       <c r="E31" s="9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F31" s="8">
         <v>0.38</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="9">
-        <v>0.07</v>
-      </c>
-      <c r="I31" s="5">
-        <v>99</v>
-      </c>
-      <c r="J31" s="9">
-        <v>0.61</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="L31" s="9">
-        <v>1.45</v>
-      </c>
-      <c r="M31" s="9">
-        <v>1.7</v>
+      <c r="H31" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="I31" s="10">
+        <v>77</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="L31" s="11">
+        <v>1.65</v>
+      </c>
+      <c r="M31" s="11">
+        <v>2.85</v>
       </c>
       <c r="N31" s="4"/>
-      <c r="O31" s="5">
-        <v>10</v>
-      </c>
-      <c r="P31" s="5">
-        <v>101</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>20</v>
-      </c>
-      <c r="R31" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="S31" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="T31" s="9">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="O31" s="10">
+        <v>21</v>
+      </c>
+      <c r="P31" s="10">
+        <v>176</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>16</v>
+      </c>
+      <c r="R31" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="S31" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="T31" s="11">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>6</v>
       </c>
@@ -2221,45 +2227,45 @@
         <v>0.18</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="I32" s="5">
-        <v>68</v>
-      </c>
-      <c r="J32" s="9">
-        <v>0.38</v>
-      </c>
-      <c r="K32" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="L32" s="9">
+      <c r="H32" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="I32" s="10">
+        <v>92</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0.68</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="L32" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="M32" s="11">
         <v>1.5</v>
       </c>
-      <c r="M32" s="5">
-        <v>1</v>
-      </c>
       <c r="N32" s="4"/>
-      <c r="O32" s="5">
-        <v>2</v>
-      </c>
-      <c r="P32" s="5">
-        <v>168</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>27</v>
-      </c>
-      <c r="R32" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="S32" s="5">
-        <v>2</v>
-      </c>
-      <c r="T32" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="O32" s="10">
+        <v>15</v>
+      </c>
+      <c r="P32" s="10">
+        <v>186</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>26</v>
+      </c>
+      <c r="R32" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="S32" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="T32" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>2</v>
       </c>
@@ -2279,45 +2285,45 @@
         <v>0.44</v>
       </c>
       <c r="G33" s="4"/>
-      <c r="H33" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="I33" s="5">
-        <v>77</v>
-      </c>
-      <c r="J33" s="9">
-        <v>0.26</v>
-      </c>
-      <c r="K33" s="9">
-        <v>0.24</v>
-      </c>
-      <c r="L33" s="9">
-        <v>1.45</v>
-      </c>
-      <c r="M33" s="9">
-        <v>1.35</v>
+      <c r="H33" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="I33" s="10">
+        <v>59</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="L33" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="M33" s="11">
+        <v>2.7</v>
       </c>
       <c r="N33" s="4"/>
-      <c r="O33" s="5">
-        <v>3</v>
-      </c>
-      <c r="P33" s="5">
-        <v>108</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>42</v>
-      </c>
-      <c r="R33" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="S33" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="T33" s="9">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="O33" s="10">
+        <v>10</v>
+      </c>
+      <c r="P33" s="10">
+        <v>164</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>17</v>
+      </c>
+      <c r="R33" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="S33" s="11">
+        <v>1.65</v>
+      </c>
+      <c r="T33" s="11">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -2337,45 +2343,45 @@
         <v>0.26</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="9">
-        <v>0.98</v>
-      </c>
-      <c r="I34" s="5">
-        <v>54</v>
-      </c>
-      <c r="J34" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="K34" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="L34" s="9">
+      <c r="H34" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="I34" s="10">
+        <v>56</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="L34" s="11">
         <v>1.7</v>
       </c>
-      <c r="M34" s="9">
-        <v>1.8</v>
+      <c r="M34" s="11">
+        <v>2.75</v>
       </c>
       <c r="N34" s="4"/>
-      <c r="O34" s="5">
-        <v>6</v>
-      </c>
-      <c r="P34" s="5">
-        <v>196</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>41</v>
-      </c>
-      <c r="R34" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="S34" s="9">
-        <v>1.1</v>
-      </c>
-      <c r="T34" s="9">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="O34" s="10">
+        <v>11</v>
+      </c>
+      <c r="P34" s="10">
+        <v>183</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>19</v>
+      </c>
+      <c r="R34" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="S34" s="11">
+        <v>1.35</v>
+      </c>
+      <c r="T34" s="11">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>2</v>
       </c>
@@ -2395,45 +2401,45 @@
         <v>0.36</v>
       </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="9">
-        <v>0.49</v>
-      </c>
-      <c r="I35" s="5">
-        <v>82</v>
-      </c>
-      <c r="J35" s="9">
-        <v>0.69</v>
-      </c>
-      <c r="K35" s="9">
-        <v>0.44</v>
-      </c>
-      <c r="L35" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="M35" s="5">
+      <c r="H35" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="I35" s="10">
+        <v>77</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="L35" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="M35" s="11">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="10">
+        <v>17</v>
+      </c>
+      <c r="P35" s="10">
+        <v>168</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>18</v>
+      </c>
+      <c r="R35" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="S35" s="11">
+        <v>1.55</v>
+      </c>
+      <c r="T35" s="11">
         <v>2</v>
       </c>
-      <c r="N35" s="4"/>
-      <c r="O35" s="5">
-        <v>4</v>
-      </c>
-      <c r="P35" s="5">
-        <v>191</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>12</v>
-      </c>
-      <c r="R35" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="S35" s="5">
-        <v>1</v>
-      </c>
-      <c r="T35" s="9">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    </row>
+    <row r="36" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>5</v>
       </c>
@@ -2453,45 +2459,45 @@
         <v>0.35</v>
       </c>
       <c r="G36" s="4"/>
-      <c r="H36" s="9">
+      <c r="H36" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="I36" s="10">
+        <v>52</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="K36" s="11">
         <v>0.25</v>
       </c>
-      <c r="I36" s="5">
-        <v>68</v>
-      </c>
-      <c r="J36" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="K36" s="9">
-        <v>0.39</v>
-      </c>
-      <c r="L36" s="9">
-        <v>1.1</v>
-      </c>
-      <c r="M36" s="9">
-        <v>2.25</v>
+      <c r="L36" s="11">
+        <v>1.85</v>
+      </c>
+      <c r="M36" s="11">
+        <v>2.1</v>
       </c>
       <c r="N36" s="4"/>
-      <c r="O36" s="5">
-        <v>5</v>
-      </c>
-      <c r="P36" s="5">
-        <v>178</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>14</v>
-      </c>
-      <c r="R36" s="9">
+      <c r="O36" s="10">
+        <v>1</v>
+      </c>
+      <c r="P36" s="10">
+        <v>197</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>22</v>
+      </c>
+      <c r="R36" s="11">
         <v>0.3</v>
       </c>
-      <c r="S36" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="T36" s="9">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="S36" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="T36" s="11">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>3</v>
       </c>
@@ -2508,48 +2514,48 @@
         <v>1.35</v>
       </c>
       <c r="F37" s="8">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="9">
-        <v>0.22</v>
-      </c>
-      <c r="I37" s="5">
-        <v>56</v>
-      </c>
-      <c r="J37" s="9">
+      <c r="H37" s="11">
         <v>0.05</v>
       </c>
-      <c r="K37" s="9">
-        <v>0.29</v>
-      </c>
-      <c r="L37" s="9">
-        <v>1.45</v>
-      </c>
-      <c r="M37" s="9">
-        <v>2.05</v>
+      <c r="I37" s="10">
+        <v>55</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="L37" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="M37" s="11">
+        <v>3</v>
       </c>
       <c r="N37" s="4"/>
-      <c r="O37" s="5">
-        <v>6</v>
-      </c>
-      <c r="P37" s="5">
-        <v>189</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>24</v>
-      </c>
-      <c r="R37" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="S37" s="9">
+      <c r="O37" s="10">
+        <v>7</v>
+      </c>
+      <c r="P37" s="10">
+        <v>144</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>4</v>
+      </c>
+      <c r="R37" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="S37" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="T37" s="11">
         <v>1.8</v>
       </c>
-      <c r="T37" s="9">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    </row>
+    <row r="38" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>3</v>
       </c>
@@ -2569,45 +2575,45 @@
         <v>0.12</v>
       </c>
       <c r="G38" s="4"/>
-      <c r="H38" s="9">
-        <v>0.91</v>
-      </c>
-      <c r="I38" s="5">
-        <v>77</v>
-      </c>
-      <c r="J38" s="9">
-        <v>0.86</v>
-      </c>
-      <c r="K38" s="9">
-        <v>0.22</v>
-      </c>
-      <c r="L38" s="9">
-        <v>1.85</v>
-      </c>
-      <c r="M38" s="9">
-        <v>2.65</v>
+      <c r="H38" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="I38" s="10">
+        <v>85</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0.43</v>
+      </c>
+      <c r="L38" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="M38" s="11">
+        <v>1.1499999999999999</v>
       </c>
       <c r="N38" s="4"/>
-      <c r="O38" s="5">
-        <v>4</v>
-      </c>
-      <c r="P38" s="5">
-        <v>139</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>21</v>
-      </c>
-      <c r="R38" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="S38" s="9">
-        <v>1.85</v>
-      </c>
-      <c r="T38" s="9">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="O38" s="10">
+        <v>11</v>
+      </c>
+      <c r="P38" s="10">
+        <v>190</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>14</v>
+      </c>
+      <c r="R38" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="S38" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="T38" s="11">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>16</v>
       </c>
@@ -2618,7 +2624,7 @@
         <v>32</v>
       </c>
       <c r="D39" s="9">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E39" s="9">
         <v>1.35</v>
@@ -2627,45 +2633,45 @@
         <v>0.02</v>
       </c>
       <c r="G39" s="4"/>
-      <c r="H39" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="I39" s="5">
-        <v>70</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0.76</v>
-      </c>
-      <c r="K39" s="9">
-        <v>0.37</v>
-      </c>
-      <c r="L39" s="9">
+      <c r="H39" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="I39" s="10">
+        <v>94</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="L39" s="11">
+        <v>1</v>
+      </c>
+      <c r="M39" s="11">
         <v>1.65</v>
       </c>
-      <c r="M39" s="9">
-        <v>1.4</v>
-      </c>
       <c r="N39" s="4"/>
-      <c r="O39" s="5">
-        <v>5</v>
-      </c>
-      <c r="P39" s="5">
-        <v>115</v>
-      </c>
-      <c r="Q39" s="5">
+      <c r="O39" s="10">
         <v>7</v>
       </c>
-      <c r="R39" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="S39" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="T39" s="9">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="P39" s="10">
+        <v>125</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>42</v>
+      </c>
+      <c r="R39" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="S39" s="11">
+        <v>1.65</v>
+      </c>
+      <c r="T39" s="11">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>1</v>
       </c>
@@ -2685,45 +2691,45 @@
         <v>0.41</v>
       </c>
       <c r="G40" s="4"/>
-      <c r="H40" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="I40" s="5">
-        <v>97</v>
-      </c>
-      <c r="J40" s="9">
-        <v>0.21</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0.39</v>
-      </c>
-      <c r="L40" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="M40" s="9">
-        <v>2.25</v>
+      <c r="H40" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="I40" s="10">
+        <v>79</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="L40" s="11">
+        <v>1</v>
+      </c>
+      <c r="M40" s="11">
+        <v>2.1</v>
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P40" s="5">
         <v>148</v>
       </c>
       <c r="Q40" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R40" s="9">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="S40" s="9">
-        <v>1.95</v>
-      </c>
-      <c r="T40" s="9">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+        <v>1.3</v>
+      </c>
+      <c r="T40" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2731,33 +2737,45 @@
       <c r="E41" s="9"/>
       <c r="F41" s="8"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="I41" s="5">
-        <v>81</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0.07</v>
-      </c>
-      <c r="K41" s="9">
-        <v>0.46</v>
-      </c>
-      <c r="L41" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="M41" s="9">
-        <v>1.4</v>
+      <c r="H41" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="I41" s="10">
+        <v>90</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L41" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="M41" s="11">
+        <v>1</v>
       </c>
       <c r="N41" s="4"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="O41" s="5">
+        <v>7</v>
+      </c>
+      <c r="P41" s="5">
+        <v>174</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>10</v>
+      </c>
+      <c r="R41" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="S41" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="T41" s="8">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2765,31 +2783,1923 @@
       <c r="E42" s="9"/>
       <c r="F42" s="8"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="9">
+      <c r="H42" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="I42" s="10">
+        <v>53</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="L42" s="11">
+        <v>2</v>
+      </c>
+      <c r="M42" s="11">
+        <v>1.35</v>
+      </c>
+      <c r="N42" s="4"/>
+      <c r="O42" s="5">
+        <v>13</v>
+      </c>
+      <c r="P42" s="5">
+        <v>162</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>30</v>
+      </c>
+      <c r="R42" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S42" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="T42" s="9">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H43" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="I43" s="10">
+        <v>63</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="L43" s="11">
+        <v>1.45</v>
+      </c>
+      <c r="M43" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="O43" s="5">
+        <v>4</v>
+      </c>
+      <c r="P43" s="5">
+        <v>161</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>20</v>
+      </c>
+      <c r="R43" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="S43" s="5">
+        <v>1</v>
+      </c>
+      <c r="T43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H44" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="I44" s="10">
+        <v>70</v>
+      </c>
+      <c r="J44" s="11">
+        <v>1</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="L44" s="11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M44" s="11">
+        <v>2.65</v>
+      </c>
+      <c r="O44" s="5">
+        <v>9</v>
+      </c>
+      <c r="P44" s="5">
+        <v>145</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>31</v>
+      </c>
+      <c r="R44" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="S44" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="T44" s="9">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H45" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="I45" s="10">
+        <v>92</v>
+      </c>
+      <c r="J45" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="K45" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="L45" s="11">
+        <v>1.45</v>
+      </c>
+      <c r="M45" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="O45" s="5">
+        <v>23</v>
+      </c>
+      <c r="P45" s="5">
+        <v>187</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>46</v>
+      </c>
+      <c r="R45" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="S45" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="T45" s="9">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H46" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="I46" s="10">
+        <v>99</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="L46" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="M46" s="11">
+        <v>1.55</v>
+      </c>
+      <c r="O46" s="5">
+        <v>19</v>
+      </c>
+      <c r="P46" s="5">
+        <v>104</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>46</v>
+      </c>
+      <c r="R46" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="S46" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="T46" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H47" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="I47" s="10">
+        <v>73</v>
+      </c>
+      <c r="J47" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="L47" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="M47" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O47" s="5">
+        <v>1</v>
+      </c>
+      <c r="P47" s="5">
+        <v>181</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>2</v>
+      </c>
+      <c r="R47" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S47" s="9">
+        <v>1.85</v>
+      </c>
+      <c r="T47" s="9">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H48" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="I48" s="10">
+        <v>65</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="L48" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="M48" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O48" s="5">
+        <v>3</v>
+      </c>
+      <c r="P48" s="5">
+        <v>127</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>37</v>
+      </c>
+      <c r="R48" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="S48" s="5">
+        <v>1</v>
+      </c>
+      <c r="T48" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H49" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="I49" s="10">
+        <v>73</v>
+      </c>
+      <c r="J49" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L49" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="M49" s="11">
+        <v>1</v>
+      </c>
+      <c r="O49" s="5">
+        <v>1</v>
+      </c>
+      <c r="P49" s="5">
+        <v>162</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>19</v>
+      </c>
+      <c r="R49" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S49" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="T49" s="9">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="50" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H50" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="I50" s="10">
+        <v>52</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="L50" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="M50" s="11">
+        <v>1</v>
+      </c>
+      <c r="O50" s="5">
+        <v>23</v>
+      </c>
+      <c r="P50" s="5">
+        <v>184</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>19</v>
+      </c>
+      <c r="R50" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="S50" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="T50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H51" s="11">
+        <v>0.43</v>
+      </c>
+      <c r="I51" s="10">
+        <v>53</v>
+      </c>
+      <c r="J51" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="K51" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="L51" s="11">
+        <v>1.65</v>
+      </c>
+      <c r="M51" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="O51" s="5">
+        <v>2</v>
+      </c>
+      <c r="P51" s="5">
+        <v>105</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>44</v>
+      </c>
+      <c r="R51" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="S51" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="T51" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="52" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H52" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="I52" s="10">
+        <v>97</v>
+      </c>
+      <c r="J52" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="K52" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L52" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="M52" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="O52" s="5">
+        <v>10</v>
+      </c>
+      <c r="P52" s="5">
+        <v>101</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>20</v>
+      </c>
+      <c r="R52" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="S52" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="T52" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H53" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="I53" s="10">
+        <v>99</v>
+      </c>
+      <c r="J53" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="L53" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="M53" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="O53" s="5">
+        <v>2</v>
+      </c>
+      <c r="P53" s="5">
+        <v>168</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>27</v>
+      </c>
+      <c r="R53" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="S53" s="5">
+        <v>2</v>
+      </c>
+      <c r="T53" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H54" s="11">
+        <v>0.59</v>
+      </c>
+      <c r="I54" s="10">
+        <v>93</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L54" s="11">
+        <v>2</v>
+      </c>
+      <c r="M54" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="O54" s="5">
+        <v>3</v>
+      </c>
+      <c r="P54" s="5">
+        <v>108</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>42</v>
+      </c>
+      <c r="R54" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="S54" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="T54" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H55" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="I55" s="10">
+        <v>91</v>
+      </c>
+      <c r="J55" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="K55" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="L55" s="11">
+        <v>1.65</v>
+      </c>
+      <c r="M55" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="O55" s="5">
+        <v>6</v>
+      </c>
+      <c r="P55" s="5">
+        <v>196</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>41</v>
+      </c>
+      <c r="R55" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S55" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T55" s="9">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="56" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H56" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="I56" s="10">
+        <v>66</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L56" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M56" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="O56" s="5">
+        <v>4</v>
+      </c>
+      <c r="P56" s="5">
+        <v>191</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>12</v>
+      </c>
+      <c r="R56" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="S56" s="5">
+        <v>1</v>
+      </c>
+      <c r="T56" s="9">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="57" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H57" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="I57" s="10">
+        <v>75</v>
+      </c>
+      <c r="J57" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="K57" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="L57" s="11">
+        <v>1.45</v>
+      </c>
+      <c r="M57" s="11">
+        <v>1.65</v>
+      </c>
+      <c r="O57" s="5">
+        <v>5</v>
+      </c>
+      <c r="P57" s="5">
+        <v>178</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>14</v>
+      </c>
+      <c r="R57" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="S57" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="T57" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="58" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H58" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="I58" s="10">
+        <v>61</v>
+      </c>
+      <c r="J58" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="K58" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="L58" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="M58" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="O58" s="5">
+        <v>1</v>
+      </c>
+      <c r="P58" s="5">
+        <v>162</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>19</v>
+      </c>
+      <c r="R58" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S58" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="T58" s="9">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="59" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H59" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="I59" s="10">
+        <v>70</v>
+      </c>
+      <c r="J59" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L59" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M59" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="O59" s="5">
+        <v>23</v>
+      </c>
+      <c r="P59" s="5">
+        <v>184</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>19</v>
+      </c>
+      <c r="R59" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="S59" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="T59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H60" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I60" s="10">
+        <v>71</v>
+      </c>
+      <c r="J60" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="K60" s="11">
+        <v>0.37</v>
+      </c>
+      <c r="L60" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="M60" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="O60" s="5">
+        <v>2</v>
+      </c>
+      <c r="P60" s="5">
+        <v>105</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>44</v>
+      </c>
+      <c r="R60" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="S60" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="T60" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="61" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H61" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="I61" s="10">
+        <v>73</v>
+      </c>
+      <c r="J61" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="K61" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="L61" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="M61" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="O61" s="5">
+        <v>10</v>
+      </c>
+      <c r="P61" s="5">
+        <v>101</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>20</v>
+      </c>
+      <c r="R61" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="S61" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="T61" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H62" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="I62" s="10">
+        <v>66</v>
+      </c>
+      <c r="J62" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="K62" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="L62" s="11">
+        <v>1.55</v>
+      </c>
+      <c r="M62" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="O62" s="5">
+        <v>2</v>
+      </c>
+      <c r="P62" s="5">
+        <v>168</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>27</v>
+      </c>
+      <c r="R62" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="S62" s="5">
+        <v>2</v>
+      </c>
+      <c r="T62" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H63" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="I63" s="10">
+        <v>65</v>
+      </c>
+      <c r="J63" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="K63" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="L63" s="11">
+        <v>1</v>
+      </c>
+      <c r="M63" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="O63" s="5">
+        <v>3</v>
+      </c>
+      <c r="P63" s="5">
+        <v>108</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>42</v>
+      </c>
+      <c r="R63" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="S63" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="T63" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H64" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="I64" s="10">
+        <v>66</v>
+      </c>
+      <c r="J64" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="K64" s="11">
+        <v>0.21</v>
+      </c>
+      <c r="L64" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="M64" s="11">
+        <v>2.25</v>
+      </c>
+      <c r="O64" s="5">
+        <v>6</v>
+      </c>
+      <c r="P64" s="5">
+        <v>196</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>41</v>
+      </c>
+      <c r="R64" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S64" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T64" s="9">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="65" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H65" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="I65" s="10">
+        <v>61</v>
+      </c>
+      <c r="J65" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="K65" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="L65" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="M65" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="O65" s="5">
+        <v>4</v>
+      </c>
+      <c r="P65" s="5">
+        <v>191</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>12</v>
+      </c>
+      <c r="R65" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="S65" s="5">
+        <v>1</v>
+      </c>
+      <c r="T65" s="9">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="66" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H66" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="I66" s="10">
+        <v>94</v>
+      </c>
+      <c r="J66" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="K66" s="11">
+        <v>0.43</v>
+      </c>
+      <c r="L66" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M66" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O66" s="5">
+        <v>5</v>
+      </c>
+      <c r="P66" s="5">
+        <v>178</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>14</v>
+      </c>
+      <c r="R66" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="S66" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="T66" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="67" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H67" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="I67" s="10">
+        <v>95</v>
+      </c>
+      <c r="J67" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="K67" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="L67" s="11">
+        <v>1.55</v>
+      </c>
+      <c r="M67" s="11">
+        <v>1</v>
+      </c>
+      <c r="O67" s="5">
+        <v>6</v>
+      </c>
+      <c r="P67" s="5">
+        <v>189</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>24</v>
+      </c>
+      <c r="R67" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="S67" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="T67" s="9">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="68" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H68" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="I68" s="10">
+        <v>76</v>
+      </c>
+      <c r="J68" s="11">
+        <v>0.37</v>
+      </c>
+      <c r="K68" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L68" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="M68" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="O68" s="5">
+        <v>4</v>
+      </c>
+      <c r="P68" s="5">
+        <v>139</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>21</v>
+      </c>
+      <c r="R68" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="S68" s="9">
+        <v>1.85</v>
+      </c>
+      <c r="T68" s="9">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="69" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H69" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="I69" s="10">
+        <v>82</v>
+      </c>
+      <c r="J69" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="K69" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="L69" s="11">
+        <v>1.35</v>
+      </c>
+      <c r="M69" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="O69" s="5">
+        <v>5</v>
+      </c>
+      <c r="P69" s="5">
+        <v>115</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>7</v>
+      </c>
+      <c r="R69" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="S69" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="T69" s="9">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="70" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H70" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="I70" s="10">
+        <v>71</v>
+      </c>
+      <c r="J70" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="K70" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L70" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="M70" s="11">
+        <v>2.75</v>
+      </c>
+      <c r="O70" s="10">
+        <v>13</v>
+      </c>
+      <c r="P70" s="10">
+        <v>148</v>
+      </c>
+      <c r="Q70" s="10">
+        <v>12</v>
+      </c>
+      <c r="R70" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="S70" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T70" s="11">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="71" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H71" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="I71" s="10">
+        <v>54</v>
+      </c>
+      <c r="J71" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K71" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="L71" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="M71" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="O71" s="10">
+        <v>17</v>
+      </c>
+      <c r="P71" s="10">
+        <v>128</v>
+      </c>
+      <c r="Q71" s="10">
+        <v>36</v>
+      </c>
+      <c r="R71" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="S71" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="T71" s="11">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="72" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H72" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="I72" s="10">
+        <v>52</v>
+      </c>
+      <c r="J72" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K72" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="L72" s="11">
+        <v>2</v>
+      </c>
+      <c r="M72" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="O72" s="10">
+        <v>7</v>
+      </c>
+      <c r="P72" s="10">
+        <v>108</v>
+      </c>
+      <c r="Q72" s="10">
+        <v>1</v>
+      </c>
+      <c r="R72" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S72" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="T72" s="11">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="73" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H73" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="I73" s="10">
+        <v>62</v>
+      </c>
+      <c r="J73" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="K73" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="L73" s="11">
+        <v>1.55</v>
+      </c>
+      <c r="M73" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H74" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="I74" s="10">
+        <v>90</v>
+      </c>
+      <c r="J74" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="K74" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="L74" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="M74" s="11">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="75" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H75" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I75" s="10">
+        <v>64</v>
+      </c>
+      <c r="J75" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="K75" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="L75" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="M75" s="11">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="76" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H76" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="I76" s="10">
+        <v>97</v>
+      </c>
+      <c r="J76" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="K76" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="L76" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="M76" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H89" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I89" s="5">
+        <v>87</v>
+      </c>
+      <c r="J89" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K89" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="L89" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="M89" s="9">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="90" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H90" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I90" s="5">
+        <v>83</v>
+      </c>
+      <c r="J90" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K90" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="L90" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="M90" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H91" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I91" s="5">
+        <v>50</v>
+      </c>
+      <c r="J91" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="K91" s="9">
+        <v>0.36</v>
+      </c>
+      <c r="L91" s="9">
+        <v>1.35</v>
+      </c>
+      <c r="M91" s="9">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H92" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="I92" s="5">
+        <v>94</v>
+      </c>
+      <c r="J92" s="9">
+        <v>0.81</v>
+      </c>
+      <c r="K92" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="L92" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="M92" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H93" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="I93" s="5">
+        <v>79</v>
+      </c>
+      <c r="J93" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K93" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="L93" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M93" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H94" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="I94" s="5">
+        <v>95</v>
+      </c>
+      <c r="J94" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K94" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="L94" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="M94" s="9">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="95" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H95" s="9">
+        <v>0.51</v>
+      </c>
+      <c r="I95" s="5">
+        <v>88</v>
+      </c>
+      <c r="J95" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="K95" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="L95" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="M95" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="96" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H96" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I96" s="5">
+        <v>62</v>
+      </c>
+      <c r="J96" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="K96" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="L96" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="M96" s="9">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="97" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H97" s="9">
+        <v>0.39</v>
+      </c>
+      <c r="I97" s="5">
+        <v>52</v>
+      </c>
+      <c r="J97" s="9">
+        <v>0.66</v>
+      </c>
+      <c r="K97" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="L97" s="5">
+        <v>1</v>
+      </c>
+      <c r="M97" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H98" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="I98" s="5">
+        <v>93</v>
+      </c>
+      <c r="J98" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K98" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="L98" s="9">
+        <v>1.45</v>
+      </c>
+      <c r="M98" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H99" s="9">
+        <v>0.54</v>
+      </c>
+      <c r="I99" s="5">
+        <v>57</v>
+      </c>
+      <c r="J99" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="K99" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="L99" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="M99" s="9">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="100" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H100" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I100" s="5">
+        <v>53</v>
+      </c>
+      <c r="J100" s="9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K100" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="L100" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M100" s="9">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="101" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H101" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="I101" s="5">
+        <v>72</v>
+      </c>
+      <c r="J101" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="K101" s="9">
+        <v>0.48</v>
+      </c>
+      <c r="L101" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="M101" s="9">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="102" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H102" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="I102" s="5">
+        <v>73</v>
+      </c>
+      <c r="J102" s="9">
+        <v>0.93</v>
+      </c>
+      <c r="K102" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L102" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="M102" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H103" s="9">
+        <v>0.88</v>
+      </c>
+      <c r="I103" s="5">
+        <v>91</v>
+      </c>
+      <c r="J103" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K103" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="L103" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="M103" s="9">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="104" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H104" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="I104" s="5">
+        <v>50</v>
+      </c>
+      <c r="J104" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="K104" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="L104" s="9">
+        <v>1.35</v>
+      </c>
+      <c r="M104" s="9">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="105" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H105" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="I105" s="5">
+        <v>100</v>
+      </c>
+      <c r="J105" s="9">
+        <v>0.91</v>
+      </c>
+      <c r="K105" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="L105" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="M105" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H106" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="I106" s="5">
+        <v>85</v>
+      </c>
+      <c r="J106" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K106" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L106" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="M106" s="9">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="107" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H107" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="I107" s="5">
+        <v>67</v>
+      </c>
+      <c r="J107" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="K107" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="L107" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="M107" s="9">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="108" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H108" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="I108" s="5">
+        <v>70</v>
+      </c>
+      <c r="J108" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="K108" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="L108" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="M108" s="9">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="109" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H109" s="9">
+        <v>0.66</v>
+      </c>
+      <c r="I109" s="5">
+        <v>91</v>
+      </c>
+      <c r="J109" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K109" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="L109" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="M109" s="9">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="110" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H110" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I110" s="5">
+        <v>99</v>
+      </c>
+      <c r="J110" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="K110" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="L110" s="9">
+        <v>1.45</v>
+      </c>
+      <c r="M110" s="9">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="111" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H111" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="I111" s="5">
+        <v>68</v>
+      </c>
+      <c r="J111" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="K111" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="L111" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M111" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H112" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="I112" s="5">
+        <v>77</v>
+      </c>
+      <c r="J112" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="K112" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="L112" s="9">
+        <v>1.45</v>
+      </c>
+      <c r="M112" s="9">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="113" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H113" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="I113" s="5">
+        <v>54</v>
+      </c>
+      <c r="J113" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K113" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="L113" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="M113" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="114" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H114" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="I114" s="5">
+        <v>82</v>
+      </c>
+      <c r="J114" s="9">
+        <v>0.69</v>
+      </c>
+      <c r="K114" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="L114" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="M114" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H115" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I115" s="5">
+        <v>68</v>
+      </c>
+      <c r="J115" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="K115" s="9">
+        <v>0.39</v>
+      </c>
+      <c r="L115" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M115" s="9">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="116" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H116" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="I116" s="5">
+        <v>56</v>
+      </c>
+      <c r="J116" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K116" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L116" s="9">
+        <v>1.45</v>
+      </c>
+      <c r="M116" s="9">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H117" s="9">
+        <v>0.91</v>
+      </c>
+      <c r="I117" s="5">
+        <v>77</v>
+      </c>
+      <c r="J117" s="9">
+        <v>0.86</v>
+      </c>
+      <c r="K117" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="L117" s="9">
+        <v>1.85</v>
+      </c>
+      <c r="M117" s="9">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="118" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H118" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="I118" s="5">
+        <v>70</v>
+      </c>
+      <c r="J118" s="9">
+        <v>0.76</v>
+      </c>
+      <c r="K118" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="L118" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="M118" s="9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="119" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H119" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I119" s="5">
+        <v>97</v>
+      </c>
+      <c r="J119" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="K119" s="9">
+        <v>0.39</v>
+      </c>
+      <c r="L119" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M119" s="9">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="120" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H120" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I120" s="5">
+        <v>81</v>
+      </c>
+      <c r="J120" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K120" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="L120" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="M120" s="9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="121" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H121" s="9">
         <v>0.52</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I121" s="5">
         <v>53</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J121" s="9">
         <v>0.06</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K121" s="9">
         <v>0.36</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L121" s="9">
         <v>1.45</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M121" s="9">
         <v>2.4</v>
       </c>
-      <c r="N42" s="4"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
